--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 AR.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
   <si>
     <t>Course</t>
   </si>
@@ -802,6 +802,9 @@
     <t>ESCAMILLA E</t>
   </si>
   <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
     <t>COSC-253</t>
   </si>
   <si>
@@ -1030,6 +1033,15 @@
     <t>65.38%</t>
   </si>
   <si>
+    <t>COSC-442</t>
+  </si>
+  <si>
+    <t>70.83%</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>COSC-446</t>
   </si>
   <si>
@@ -1670,9 +1682,6 @@
   </si>
   <si>
     <t>54.17%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
   </si>
   <si>
     <t>VIST-205</t>
@@ -2129,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H579"/>
+  <dimension ref="A1:H583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4556,131 +4565,131 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
+    <row r="212" spans="1:8">
+      <c r="B212" t="s">
         <v>262</v>
       </c>
+      <c r="C212" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="D212" t="s">
+        <v>209</v>
+      </c>
+      <c r="E212" t="s">
+        <v>203</v>
+      </c>
+      <c r="F212" t="s">
+        <v>146</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="B214" t="s">
+      <c r="A214" t="s">
         <v>263</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.088</v>
-      </c>
-      <c r="D214" t="s">
-        <v>264</v>
-      </c>
-      <c r="E214" t="s">
-        <v>265</v>
-      </c>
-      <c r="F214" t="s">
-        <v>266</v>
-      </c>
-      <c r="G214" t="s">
-        <v>267</v>
-      </c>
-      <c r="H214" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
+        <v>264</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="D215" t="s">
+        <v>265</v>
+      </c>
+      <c r="E215" t="s">
+        <v>266</v>
+      </c>
+      <c r="F215" t="s">
+        <v>267</v>
+      </c>
+      <c r="G215" t="s">
+        <v>268</v>
+      </c>
+      <c r="H215" t="s">
         <v>269</v>
       </c>
-      <c r="C215" t="n">
+    </row>
+    <row r="216" spans="1:8">
+      <c r="B216" t="s">
+        <v>270</v>
+      </c>
+      <c r="C216" t="n">
         <v>2.6</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
+        <v>271</v>
+      </c>
+      <c r="E216" t="s">
+        <v>272</v>
+      </c>
+      <c r="F216" t="s">
+        <v>124</v>
+      </c>
+      <c r="G216" t="s">
+        <v>52</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="B219" t="s">
         <v>270</v>
       </c>
-      <c r="E215" t="s">
-        <v>271</v>
-      </c>
-      <c r="F215" t="s">
-        <v>124</v>
-      </c>
-      <c r="G215" t="s">
-        <v>52</v>
-      </c>
-      <c r="H215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
-        <v>269</v>
-      </c>
-      <c r="C218" t="n">
+      <c r="C219" t="n">
         <v>2.6415</v>
       </c>
-      <c r="D218" t="s">
-        <v>273</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="D219" t="s">
         <v>274</v>
       </c>
-      <c r="F218" t="s">
+      <c r="E219" t="s">
         <v>275</v>
       </c>
-      <c r="G218" t="s">
+      <c r="F219" t="s">
         <v>276</v>
       </c>
-      <c r="H218" t="s">
+      <c r="G219" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
+      <c r="H219" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="B221" t="s">
+      <c r="A221" t="s">
         <v>279</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D221" t="s">
-        <v>280</v>
-      </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
-      <c r="F221" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" t="s">
-        <v>13</v>
-      </c>
-      <c r="H221" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
+        <v>280</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D222" t="s">
         <v>281</v>
       </c>
-      <c r="C222" t="n">
-        <v>2.7615</v>
-      </c>
-      <c r="D222" t="s">
-        <v>282</v>
-      </c>
       <c r="E222" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="F222" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -4688,510 +4697,510 @@
     </row>
     <row r="223" spans="1:8">
       <c r="B223" t="s">
+        <v>282</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.7615</v>
+      </c>
+      <c r="D223" t="s">
+        <v>283</v>
+      </c>
+      <c r="E223" t="s">
+        <v>284</v>
+      </c>
+      <c r="F223" t="s">
+        <v>80</v>
+      </c>
+      <c r="G223" t="s">
         <v>285</v>
       </c>
-      <c r="C223" t="n">
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
+        <v>286</v>
+      </c>
+      <c r="C224" t="n">
         <v>2.9</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>132</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E224" t="s">
         <v>124</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F224" t="s">
         <v>107</v>
       </c>
-      <c r="G223" t="s">
-        <v>13</v>
-      </c>
-      <c r="H223" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>286</v>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="B226" t="s">
+      <c r="A226" t="s">
         <v>287</v>
       </c>
-      <c r="C226" t="n">
+    </row>
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
+        <v>288</v>
+      </c>
+      <c r="C227" t="n">
         <v>3</v>
       </c>
-      <c r="D226" t="s">
-        <v>288</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="D227" t="s">
         <v>289</v>
       </c>
-      <c r="F226" t="s">
-        <v>288</v>
-      </c>
-      <c r="G226" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
+      <c r="E227" t="s">
         <v>290</v>
       </c>
+      <c r="F227" t="s">
+        <v>289</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="B229" t="s">
+      <c r="A229" t="s">
         <v>291</v>
       </c>
-      <c r="C229" t="n">
+    </row>
+    <row r="230" spans="1:8">
+      <c r="B230" t="s">
+        <v>292</v>
+      </c>
+      <c r="C230" t="n">
         <v>2.9705</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D230" t="s">
         <v>80</v>
       </c>
-      <c r="E229" t="s">
-        <v>292</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="E230" t="s">
         <v>293</v>
       </c>
-      <c r="G229" t="s">
+      <c r="F230" t="s">
+        <v>294</v>
+      </c>
+      <c r="G230" t="s">
         <v>12</v>
       </c>
-      <c r="H229" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" t="s">
+      <c r="H230" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="B232" t="s">
-        <v>279</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D232" t="s">
-        <v>84</v>
-      </c>
-      <c r="E232" t="s">
-        <v>80</v>
-      </c>
-      <c r="F232" t="s">
+      <c r="A232" t="s">
         <v>296</v>
-      </c>
-      <c r="G232" t="s">
-        <v>13</v>
-      </c>
-      <c r="H232" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
+        <v>280</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>84</v>
+      </c>
+      <c r="E233" t="s">
+        <v>80</v>
+      </c>
+      <c r="F233" t="s">
         <v>297</v>
       </c>
-      <c r="C233" t="n">
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>298</v>
+      </c>
+      <c r="C234" t="n">
         <v>3.312</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D234" t="s">
         <v>242</v>
       </c>
-      <c r="E233" t="s">
-        <v>298</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="E234" t="s">
+        <v>299</v>
+      </c>
+      <c r="F234" t="s">
         <v>236</v>
       </c>
-      <c r="G233" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" t="s">
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="A235" t="s">
-        <v>299</v>
-      </c>
-    </row>
     <row r="236" spans="1:8">
-      <c r="B236" t="s">
+      <c r="A236" t="s">
         <v>300</v>
       </c>
-      <c r="C236" t="n">
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>301</v>
+      </c>
+      <c r="C237" t="n">
         <v>2.8345</v>
       </c>
-      <c r="D236" t="s">
-        <v>301</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="D237" t="s">
+        <v>302</v>
+      </c>
+      <c r="E237" t="s">
         <v>242</v>
       </c>
-      <c r="F236" t="s">
-        <v>302</v>
-      </c>
-      <c r="G236" t="s">
-        <v>13</v>
-      </c>
-      <c r="H236" t="s">
+      <c r="F237" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="B239" t="s">
+      <c r="A239" t="s">
         <v>305</v>
       </c>
-      <c r="C239" t="n">
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>306</v>
+      </c>
+      <c r="C240" t="n">
         <v>2.933</v>
       </c>
-      <c r="D239" t="s">
-        <v>296</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="D240" t="s">
+        <v>297</v>
+      </c>
+      <c r="E240" t="s">
         <v>209</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F240" t="s">
         <v>155</v>
       </c>
-      <c r="G239" t="s">
-        <v>13</v>
-      </c>
-      <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" t="s">
-        <v>306</v>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="B242" t="s">
-        <v>287</v>
-      </c>
-      <c r="C242" t="n">
+      <c r="A242" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="B243" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" t="n">
         <v>2.649</v>
       </c>
-      <c r="D242" t="s">
-        <v>307</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="D243" t="s">
         <v>308</v>
       </c>
-      <c r="F242" t="s">
+      <c r="E243" t="s">
         <v>309</v>
       </c>
-      <c r="G242" t="s">
+      <c r="F243" t="s">
         <v>310</v>
       </c>
-      <c r="H242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
+      <c r="G243" t="s">
         <v>311</v>
       </c>
+      <c r="H243" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="B245" t="s">
+      <c r="A245" t="s">
         <v>312</v>
       </c>
-      <c r="C245" t="n">
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>313</v>
+      </c>
+      <c r="C246" t="n">
         <v>2.9055</v>
       </c>
-      <c r="D245" t="s">
-        <v>313</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="D246" t="s">
+        <v>314</v>
+      </c>
+      <c r="E246" t="s">
         <v>148</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F246" t="s">
         <v>107</v>
       </c>
-      <c r="G245" t="s">
-        <v>13</v>
-      </c>
-      <c r="H245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>314</v>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="B248" t="s">
+      <c r="A248" t="s">
         <v>315</v>
       </c>
-      <c r="C248" t="n">
+    </row>
+    <row r="249" spans="1:8">
+      <c r="B249" t="s">
+        <v>316</v>
+      </c>
+      <c r="C249" t="n">
         <v>3.396</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>192</v>
       </c>
-      <c r="E248" t="s">
-        <v>316</v>
-      </c>
-      <c r="F248" t="s">
+      <c r="E249" t="s">
         <v>317</v>
       </c>
-      <c r="G248" t="s">
-        <v>13</v>
-      </c>
-      <c r="H248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" t="s">
+      <c r="F249" t="s">
         <v>318</v>
       </c>
+      <c r="G249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="B251" t="s">
+      <c r="A251" t="s">
         <v>319</v>
       </c>
-      <c r="C251" t="n">
+    </row>
+    <row r="252" spans="1:8">
+      <c r="B252" t="s">
+        <v>320</v>
+      </c>
+      <c r="C252" t="n">
         <v>3.021</v>
       </c>
-      <c r="D251" t="s">
-        <v>320</v>
-      </c>
-      <c r="E251" t="s">
+      <c r="D252" t="s">
         <v>321</v>
       </c>
-      <c r="F251" t="s">
+      <c r="E252" t="s">
         <v>322</v>
       </c>
-      <c r="G251" t="s">
+      <c r="F252" t="s">
         <v>323</v>
       </c>
-      <c r="H251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
+      <c r="G252" t="s">
         <v>324</v>
       </c>
+      <c r="H252" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="B254" t="s">
+      <c r="A254" t="s">
         <v>325</v>
       </c>
-      <c r="C254" t="n">
+    </row>
+    <row r="255" spans="1:8">
+      <c r="B255" t="s">
+        <v>326</v>
+      </c>
+      <c r="C255" t="n">
         <v>3.81</v>
       </c>
-      <c r="D254" t="s">
-        <v>326</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="D255" t="s">
         <v>327</v>
       </c>
-      <c r="F254" t="s">
+      <c r="E255" t="s">
+        <v>328</v>
+      </c>
+      <c r="F255" t="s">
         <v>26</v>
       </c>
-      <c r="G254" t="s">
-        <v>13</v>
-      </c>
-      <c r="H254" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>328</v>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="B257" t="s">
+      <c r="A257" t="s">
         <v>329</v>
       </c>
-      <c r="C257" t="n">
+    </row>
+    <row r="258" spans="1:8">
+      <c r="B258" t="s">
+        <v>330</v>
+      </c>
+      <c r="C258" t="n">
         <v>3.2845</v>
       </c>
-      <c r="D257" t="s">
-        <v>330</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="D258" t="s">
+        <v>331</v>
+      </c>
+      <c r="E258" t="s">
         <v>124</v>
       </c>
-      <c r="F257" t="s">
-        <v>331</v>
-      </c>
-      <c r="G257" t="s">
+      <c r="F258" t="s">
         <v>332</v>
       </c>
-      <c r="H257" t="s">
+      <c r="G258" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" t="s">
+      <c r="H258" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="B260" t="s">
+      <c r="A260" t="s">
         <v>335</v>
       </c>
-      <c r="C260" t="n">
+    </row>
+    <row r="261" spans="1:8">
+      <c r="B261" t="s">
+        <v>336</v>
+      </c>
+      <c r="C261" t="n">
         <v>3.2</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" t="s">
         <v>128</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E261" t="s">
         <v>209</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F261" t="s">
         <v>125</v>
       </c>
-      <c r="G260" t="s">
-        <v>13</v>
-      </c>
-      <c r="H260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" t="s">
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>335</v>
-      </c>
-      <c r="C263" t="n">
+      <c r="C264" t="n">
         <v>3.346</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
         <v>56</v>
       </c>
-      <c r="E263" t="s">
-        <v>337</v>
-      </c>
-      <c r="F263" t="s">
-        <v>13</v>
-      </c>
-      <c r="G263" t="s">
-        <v>13</v>
-      </c>
-      <c r="H263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
+      <c r="E264" t="s">
         <v>338</v>
       </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="B266" t="s">
-        <v>263</v>
-      </c>
-      <c r="C266" t="n">
+      <c r="A266" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>262</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D267" t="s">
+        <v>340</v>
+      </c>
+      <c r="E267" t="s">
+        <v>107</v>
+      </c>
+      <c r="F267" t="s">
+        <v>341</v>
+      </c>
+      <c r="G267" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>264</v>
+      </c>
+      <c r="C270" t="n">
         <v>3.19</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D270" t="s">
         <v>80</v>
       </c>
-      <c r="E266" t="s">
-        <v>283</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="E270" t="s">
+        <v>284</v>
+      </c>
+      <c r="F270" t="s">
         <v>146</v>
       </c>
-      <c r="G266" t="s">
-        <v>13</v>
-      </c>
-      <c r="H266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="B269" t="s">
-        <v>340</v>
-      </c>
-      <c r="C269" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D269" t="s">
-        <v>76</v>
-      </c>
-      <c r="E269" t="s">
-        <v>76</v>
-      </c>
-      <c r="F269" t="s">
-        <v>13</v>
-      </c>
-      <c r="G269" t="s">
-        <v>13</v>
-      </c>
-      <c r="H269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" t="s">
-        <v>341</v>
+      <c r="G270" t="s">
+        <v>13</v>
+      </c>
+      <c r="H270" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="B272" t="s">
-        <v>342</v>
-      </c>
-      <c r="C272" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="A272" t="s">
         <v>343</v>
-      </c>
-      <c r="E272" t="s">
-        <v>344</v>
-      </c>
-      <c r="F272" t="s">
-        <v>13</v>
-      </c>
-      <c r="G272" t="s">
-        <v>13</v>
-      </c>
-      <c r="H272" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="B273" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C273" t="n">
-        <v>3.6647</v>
+        <v>3.5</v>
       </c>
       <c r="D273" t="s">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="E273" t="s">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="F273" t="s">
         <v>13</v>
@@ -5205,75 +5214,75 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C276" t="n">
-        <v>3.727</v>
+        <v>3.923</v>
       </c>
       <c r="D276" t="s">
+        <v>347</v>
+      </c>
+      <c r="E276" t="s">
+        <v>348</v>
+      </c>
+      <c r="F276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>13</v>
+      </c>
+      <c r="H276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="B277" t="s">
         <v>349</v>
       </c>
-      <c r="E276" t="s">
+      <c r="C277" t="n">
+        <v>3.6647</v>
+      </c>
+      <c r="D277" t="s">
         <v>350</v>
       </c>
-      <c r="F276" t="s">
+      <c r="E277" t="s">
         <v>351</v>
       </c>
-      <c r="G276" t="s">
-        <v>13</v>
-      </c>
-      <c r="H276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" t="s">
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>13</v>
+      </c>
+      <c r="H277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="B279" t="s">
-        <v>353</v>
-      </c>
-      <c r="C279" t="n">
-        <v>3</v>
-      </c>
-      <c r="D279" t="s">
-        <v>354</v>
-      </c>
-      <c r="E279" t="s">
-        <v>355</v>
-      </c>
-      <c r="F279" t="s">
-        <v>146</v>
-      </c>
-      <c r="G279" t="s">
-        <v>13</v>
-      </c>
-      <c r="H279" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C280" t="n">
-        <v>3.929</v>
+        <v>3.727</v>
       </c>
       <c r="D280" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="E280" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="F280" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="G280" t="s">
         <v>13</v>
@@ -5292,176 +5301,176 @@
         <v>357</v>
       </c>
       <c r="C283" t="n">
-        <v>3.4145</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
         <v>358</v>
       </c>
       <c r="E283" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F283" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="G283" t="s">
         <v>13</v>
       </c>
       <c r="H283" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>346</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D284" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" t="s">
+        <v>26</v>
+      </c>
+      <c r="F284" t="s">
+        <v>13</v>
+      </c>
+      <c r="G284" t="s">
+        <v>13</v>
+      </c>
+      <c r="H284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
-      <c r="B286" t="s">
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
         <v>361</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C287" t="n">
+        <v>3.4145</v>
+      </c>
+      <c r="D287" t="s">
+        <v>362</v>
+      </c>
+      <c r="E287" t="s">
+        <v>362</v>
+      </c>
+      <c r="F287" t="s">
+        <v>363</v>
+      </c>
+      <c r="G287" t="s">
+        <v>13</v>
+      </c>
+      <c r="H287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>365</v>
+      </c>
+      <c r="C290" t="n">
         <v>3.8</v>
       </c>
-      <c r="D286" t="s">
-        <v>362</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="D290" t="s">
+        <v>366</v>
+      </c>
+      <c r="E290" t="s">
         <v>155</v>
       </c>
-      <c r="F286" t="s">
-        <v>13</v>
-      </c>
-      <c r="G286" t="s">
-        <v>13</v>
-      </c>
-      <c r="H286" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="B289" t="s">
-        <v>364</v>
-      </c>
-      <c r="C289" t="n">
+      <c r="F290" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" t="s">
+        <v>13</v>
+      </c>
+      <c r="H290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="B293" t="s">
+        <v>368</v>
+      </c>
+      <c r="C293" t="n">
         <v>3.488</v>
       </c>
-      <c r="D289" t="s">
-        <v>365</v>
-      </c>
-      <c r="E289" t="s">
-        <v>366</v>
-      </c>
-      <c r="F289" t="s">
-        <v>367</v>
-      </c>
-      <c r="G289" t="s">
-        <v>13</v>
-      </c>
-      <c r="H289" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="B292" t="s">
-        <v>325</v>
-      </c>
-      <c r="C292" t="n">
+      <c r="D293" t="s">
+        <v>369</v>
+      </c>
+      <c r="E293" t="s">
+        <v>370</v>
+      </c>
+      <c r="F293" t="s">
+        <v>371</v>
+      </c>
+      <c r="G293" t="s">
+        <v>13</v>
+      </c>
+      <c r="H293" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="B296" t="s">
+        <v>326</v>
+      </c>
+      <c r="C296" t="n">
         <v>3.714</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D296" t="s">
         <v>100</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E296" t="s">
         <v>71</v>
       </c>
-      <c r="F292" t="s">
-        <v>13</v>
-      </c>
-      <c r="G292" t="s">
-        <v>13</v>
-      </c>
-      <c r="H292" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="B295" t="s">
-        <v>342</v>
-      </c>
-      <c r="C295" t="n">
-        <v>3.462</v>
-      </c>
-      <c r="D295" t="s">
-        <v>66</v>
-      </c>
-      <c r="E295" t="s">
-        <v>67</v>
-      </c>
-      <c r="F295" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" t="s">
-        <v>13</v>
-      </c>
-      <c r="H295" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>370</v>
+      <c r="F296" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" t="s">
+        <v>13</v>
+      </c>
+      <c r="H296" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="B298" t="s">
-        <v>342</v>
-      </c>
-      <c r="C298" t="n">
-        <v>4</v>
-      </c>
-      <c r="D298" t="s">
-        <v>22</v>
-      </c>
-      <c r="E298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" t="s">
-        <v>13</v>
-      </c>
-      <c r="H298" t="s">
-        <v>13</v>
+      <c r="A298" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C299" t="n">
-        <v>3.818</v>
+        <v>3.462</v>
       </c>
       <c r="D299" t="s">
-        <v>371</v>
+        <v>66</v>
       </c>
       <c r="E299" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
@@ -5475,240 +5484,240 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C302" t="n">
+        <v>4</v>
+      </c>
+      <c r="D302" t="s">
+        <v>22</v>
+      </c>
+      <c r="E302" t="s">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" t="s">
+        <v>13</v>
+      </c>
+      <c r="H302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="B303" t="s">
+        <v>361</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D303" t="s">
+        <v>375</v>
+      </c>
+      <c r="E303" t="s">
+        <v>376</v>
+      </c>
+      <c r="F303" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" t="s">
+        <v>13</v>
+      </c>
+      <c r="H303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
+        <v>326</v>
+      </c>
+      <c r="C306" t="n">
         <v>3.544</v>
       </c>
-      <c r="D302" t="s">
-        <v>374</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="D306" t="s">
+        <v>378</v>
+      </c>
+      <c r="E306" t="s">
         <v>174</v>
       </c>
-      <c r="F302" t="s">
-        <v>375</v>
-      </c>
-      <c r="G302" t="s">
-        <v>13</v>
-      </c>
-      <c r="H302" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="B305" t="s">
+      <c r="F306" t="s">
+        <v>379</v>
+      </c>
+      <c r="G306" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
         <v>258</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C309" t="n">
         <v>3.8</v>
       </c>
-      <c r="D305" t="s">
-        <v>362</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="D309" t="s">
+        <v>366</v>
+      </c>
+      <c r="E309" t="s">
         <v>155</v>
       </c>
-      <c r="F305" t="s">
-        <v>13</v>
-      </c>
-      <c r="G305" t="s">
-        <v>13</v>
-      </c>
-      <c r="H305" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
+      <c r="F309" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" t="s">
+        <v>13</v>
+      </c>
+      <c r="H309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
         <v>261</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C312" t="n">
         <v>3.954</v>
       </c>
-      <c r="D308" t="s">
-        <v>378</v>
-      </c>
-      <c r="E308" t="s">
+      <c r="D312" t="s">
+        <v>382</v>
+      </c>
+      <c r="E312" t="s">
         <v>141</v>
       </c>
-      <c r="F308" t="s">
-        <v>13</v>
-      </c>
-      <c r="G308" t="s">
-        <v>13</v>
-      </c>
-      <c r="H308" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>335</v>
-      </c>
-      <c r="C311" t="n">
+      <c r="F312" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" t="s">
+        <v>13</v>
+      </c>
+      <c r="H312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>336</v>
+      </c>
+      <c r="C315" t="n">
         <v>3.5</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D315" t="s">
         <v>67</v>
       </c>
-      <c r="E311" t="s">
-        <v>380</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="E315" t="s">
+        <v>384</v>
+      </c>
+      <c r="F315" t="s">
         <v>243</v>
       </c>
-      <c r="G311" t="s">
-        <v>13</v>
-      </c>
-      <c r="H311" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>345</v>
-      </c>
-      <c r="C314" t="n">
+      <c r="G315" t="s">
+        <v>13</v>
+      </c>
+      <c r="H315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>349</v>
+      </c>
+      <c r="C318" t="n">
         <v>4</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D318" t="s">
         <v>22</v>
       </c>
-      <c r="E314" t="s">
-        <v>13</v>
-      </c>
-      <c r="F314" t="s">
-        <v>13</v>
-      </c>
-      <c r="G314" t="s">
-        <v>13</v>
-      </c>
-      <c r="H314" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>340</v>
-      </c>
-      <c r="C317" t="n">
+      <c r="E318" t="s">
+        <v>13</v>
+      </c>
+      <c r="F318" t="s">
+        <v>13</v>
+      </c>
+      <c r="G318" t="s">
+        <v>13</v>
+      </c>
+      <c r="H318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>344</v>
+      </c>
+      <c r="C321" t="n">
         <v>3.923</v>
       </c>
-      <c r="D317" t="s">
-        <v>343</v>
-      </c>
-      <c r="E317" t="s">
-        <v>344</v>
-      </c>
-      <c r="F317" t="s">
-        <v>13</v>
-      </c>
-      <c r="G317" t="s">
-        <v>13</v>
-      </c>
-      <c r="H317" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>285</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3.741</v>
-      </c>
-      <c r="D320" t="s">
-        <v>384</v>
-      </c>
-      <c r="E320" t="s">
-        <v>385</v>
-      </c>
-      <c r="F320" t="s">
-        <v>13</v>
-      </c>
-      <c r="G320" t="s">
-        <v>13</v>
-      </c>
-      <c r="H320" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>386</v>
+      <c r="D321" t="s">
+        <v>347</v>
+      </c>
+      <c r="E321" t="s">
+        <v>348</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" t="s">
+        <v>13</v>
+      </c>
+      <c r="H321" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="B323" t="s">
+      <c r="A323" t="s">
         <v>387</v>
-      </c>
-      <c r="C323" t="n">
-        <v>3.5025</v>
-      </c>
-      <c r="D323" t="s">
-        <v>388</v>
-      </c>
-      <c r="E323" t="s">
-        <v>389</v>
-      </c>
-      <c r="F323" t="s">
-        <v>390</v>
-      </c>
-      <c r="G323" t="s">
-        <v>391</v>
-      </c>
-      <c r="H323" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="C324" t="n">
-        <v>3.9774</v>
+        <v>3.741</v>
       </c>
       <c r="D324" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E324" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
@@ -5722,121 +5731,121 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="B327" t="s">
+        <v>391</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.5025</v>
+      </c>
+      <c r="D327" t="s">
+        <v>392</v>
+      </c>
+      <c r="E327" t="s">
+        <v>393</v>
+      </c>
+      <c r="F327" t="s">
+        <v>394</v>
+      </c>
+      <c r="G327" t="s">
+        <v>395</v>
+      </c>
+      <c r="H327" t="s">
         <v>396</v>
-      </c>
-      <c r="C327" t="n">
-        <v>3.522</v>
-      </c>
-      <c r="D327" t="s">
-        <v>397</v>
-      </c>
-      <c r="E327" t="s">
-        <v>398</v>
-      </c>
-      <c r="F327" t="s">
-        <v>13</v>
-      </c>
-      <c r="G327" t="s">
-        <v>13</v>
-      </c>
-      <c r="H327" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="B328" t="s">
+        <v>114</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.9774</v>
+      </c>
+      <c r="D328" t="s">
+        <v>397</v>
+      </c>
+      <c r="E328" t="s">
+        <v>398</v>
+      </c>
+      <c r="F328" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
         <v>399</v>
       </c>
-      <c r="C328" t="n">
+    </row>
+    <row r="331" spans="1:8">
+      <c r="B331" t="s">
+        <v>400</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.522</v>
+      </c>
+      <c r="D331" t="s">
+        <v>401</v>
+      </c>
+      <c r="E331" t="s">
+        <v>402</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" t="s">
+        <v>13</v>
+      </c>
+      <c r="H331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>403</v>
+      </c>
+      <c r="C332" t="n">
         <v>3.706</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D332" t="s">
         <v>253</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E332" t="s">
         <v>252</v>
       </c>
-      <c r="F328" t="s">
-        <v>13</v>
-      </c>
-      <c r="G328" t="s">
-        <v>13</v>
-      </c>
-      <c r="H328" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="B329" t="s">
-        <v>400</v>
-      </c>
-      <c r="C329" t="n">
-        <v>3</v>
-      </c>
-      <c r="D329" t="s">
-        <v>80</v>
-      </c>
-      <c r="E329" t="s">
-        <v>80</v>
-      </c>
-      <c r="F329" t="s">
-        <v>80</v>
-      </c>
-      <c r="G329" t="s">
-        <v>13</v>
-      </c>
-      <c r="H329" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="B330" t="s">
-        <v>401</v>
-      </c>
-      <c r="C330" t="n">
-        <v>3.2875</v>
-      </c>
-      <c r="D330" t="s">
-        <v>402</v>
-      </c>
-      <c r="E330" t="s">
-        <v>76</v>
-      </c>
-      <c r="F330" t="s">
-        <v>403</v>
-      </c>
-      <c r="G330" t="s">
-        <v>13</v>
-      </c>
-      <c r="H330" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" t="s">
-        <v>404</v>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" t="s">
+        <v>13</v>
+      </c>
+      <c r="H332" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
-        <v>194</v>
+        <v>404</v>
       </c>
       <c r="C333" t="n">
-        <v>3.596</v>
+        <v>3</v>
       </c>
       <c r="D333" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="E333" t="s">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="F333" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G333" t="s">
         <v>13</v>
@@ -5845,46 +5854,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
-      <c r="A335" t="s">
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
         <v>405</v>
       </c>
+      <c r="C334" t="n">
+        <v>3.2875</v>
+      </c>
+      <c r="D334" t="s">
+        <v>406</v>
+      </c>
+      <c r="E334" t="s">
+        <v>76</v>
+      </c>
+      <c r="F334" t="s">
+        <v>407</v>
+      </c>
+      <c r="G334" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>400</v>
-      </c>
-      <c r="C336" t="n">
-        <v>3</v>
-      </c>
-      <c r="D336" t="s">
-        <v>406</v>
-      </c>
-      <c r="E336" t="s">
-        <v>407</v>
-      </c>
-      <c r="F336" t="s">
-        <v>406</v>
-      </c>
-      <c r="G336" t="s">
-        <v>13</v>
-      </c>
-      <c r="H336" t="s">
-        <v>13</v>
+      <c r="A336" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="B337" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C337" t="n">
-        <v>3.5</v>
+        <v>3.596</v>
       </c>
       <c r="D337" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="E337" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="F337" t="s">
         <v>13</v>
@@ -5896,67 +5905,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
-      <c r="B338" t="s">
-        <v>36</v>
-      </c>
-      <c r="C338" t="n">
-        <v>3.3825</v>
-      </c>
-      <c r="D338" t="s">
-        <v>408</v>
-      </c>
-      <c r="E338" t="s">
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
         <v>409</v>
-      </c>
-      <c r="F338" t="s">
-        <v>29</v>
-      </c>
-      <c r="G338" t="s">
-        <v>13</v>
-      </c>
-      <c r="H338" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="B339" t="s">
-        <v>410</v>
-      </c>
-      <c r="C339" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="D339" t="s">
-        <v>411</v>
-      </c>
-      <c r="E339" t="s">
-        <v>242</v>
-      </c>
-      <c r="F339" t="s">
-        <v>13</v>
-      </c>
-      <c r="G339" t="s">
-        <v>13</v>
-      </c>
-      <c r="H339" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="B340" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C340" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D340" t="s">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="E340" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
       <c r="F340" t="s">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="G340" t="s">
         <v>13</v>
@@ -5965,130 +5933,171 @@
         <v>13</v>
       </c>
     </row>
+    <row r="341" spans="1:8">
+      <c r="B341" t="s">
+        <v>17</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D341" t="s">
+        <v>76</v>
+      </c>
+      <c r="E341" t="s">
+        <v>76</v>
+      </c>
+      <c r="F341" t="s">
+        <v>13</v>
+      </c>
+      <c r="G341" t="s">
+        <v>13</v>
+      </c>
+      <c r="H341" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="342" spans="1:8">
-      <c r="A342" t="s">
+      <c r="B342" t="s">
+        <v>36</v>
+      </c>
+      <c r="C342" t="n">
+        <v>3.3825</v>
+      </c>
+      <c r="D342" t="s">
         <v>412</v>
+      </c>
+      <c r="E342" t="s">
+        <v>413</v>
+      </c>
+      <c r="F342" t="s">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="B343" t="s">
+        <v>414</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="D343" t="s">
+        <v>415</v>
+      </c>
+      <c r="E343" t="s">
+        <v>242</v>
+      </c>
+      <c r="F343" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343" t="s">
+        <v>13</v>
+      </c>
+      <c r="H343" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>405</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>80</v>
+      </c>
+      <c r="E344" t="s">
+        <v>84</v>
+      </c>
+      <c r="F344" t="s">
+        <v>297</v>
+      </c>
+      <c r="G344" t="s">
+        <v>13</v>
+      </c>
+      <c r="H344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
         <v>152</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C347" t="n">
         <v>2.12</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D347" t="s">
         <v>181</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E347" t="s">
         <v>155</v>
       </c>
-      <c r="F343" t="s">
-        <v>413</v>
-      </c>
-      <c r="G343" t="s">
+      <c r="F347" t="s">
+        <v>417</v>
+      </c>
+      <c r="G347" t="s">
         <v>52</v>
       </c>
-      <c r="H343" t="s">
+      <c r="H347" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
-      <c r="A345" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="B346" t="s">
-        <v>98</v>
-      </c>
-      <c r="C346" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="D346" t="s">
-        <v>415</v>
-      </c>
-      <c r="E346" t="s">
-        <v>13</v>
-      </c>
-      <c r="F346" t="s">
-        <v>13</v>
-      </c>
-      <c r="G346" t="s">
-        <v>13</v>
-      </c>
-      <c r="H346" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
-      <c r="A348" t="s">
-        <v>417</v>
-      </c>
-    </row>
     <row r="349" spans="1:8">
-      <c r="B349" t="s">
+      <c r="A349" t="s">
         <v>418</v>
-      </c>
-      <c r="C349" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="D349" t="s">
-        <v>169</v>
-      </c>
-      <c r="E349" t="s">
-        <v>85</v>
-      </c>
-      <c r="F349" t="s">
-        <v>13</v>
-      </c>
-      <c r="G349" t="s">
-        <v>13</v>
-      </c>
-      <c r="H349" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="B350" t="s">
+        <v>98</v>
+      </c>
+      <c r="C350" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D350" t="s">
         <v>419</v>
       </c>
-      <c r="C350" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D350" t="s">
-        <v>102</v>
-      </c>
       <c r="E350" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="F350" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G350" t="s">
         <v>13</v>
       </c>
       <c r="H350" t="s">
-        <v>26</v>
+        <v>420</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="B353" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C353" t="n">
-        <v>3.333</v>
+        <v>3.444</v>
       </c>
       <c r="D353" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E353" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F353" t="s">
         <v>13</v>
@@ -6097,131 +6106,131 @@
         <v>13</v>
       </c>
       <c r="H353" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="B354" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C354" t="n">
-        <v>3.546</v>
+        <v>3.071</v>
       </c>
       <c r="D354" t="s">
-        <v>422</v>
+        <v>102</v>
       </c>
       <c r="E354" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F354" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G354" t="s">
         <v>13</v>
       </c>
       <c r="H354" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="B357" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C357" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D357" t="s">
+        <v>80</v>
+      </c>
+      <c r="E357" t="s">
+        <v>209</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" t="s">
+        <v>13</v>
+      </c>
+      <c r="H357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="B358" t="s">
+        <v>425</v>
+      </c>
+      <c r="C358" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D358" t="s">
+        <v>426</v>
+      </c>
+      <c r="E358" t="s">
+        <v>140</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358" t="s">
+        <v>13</v>
+      </c>
+      <c r="H358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="B361" t="s">
+        <v>414</v>
+      </c>
+      <c r="C361" t="n">
         <v>3.4</v>
       </c>
-      <c r="D357" t="s">
-        <v>424</v>
-      </c>
-      <c r="E357" t="s">
+      <c r="D361" t="s">
+        <v>428</v>
+      </c>
+      <c r="E361" t="s">
         <v>76</v>
       </c>
-      <c r="F357" t="s">
-        <v>267</v>
-      </c>
-      <c r="G357" t="s">
-        <v>13</v>
-      </c>
-      <c r="H357" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="A359" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="B360" t="s">
-        <v>426</v>
-      </c>
-      <c r="C360" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D360" t="s">
-        <v>427</v>
-      </c>
-      <c r="E360" t="s">
-        <v>428</v>
-      </c>
-      <c r="F360" t="s">
-        <v>13</v>
-      </c>
-      <c r="G360" t="s">
-        <v>13</v>
-      </c>
-      <c r="H360" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
-      <c r="A362" t="s">
+      <c r="F361" t="s">
+        <v>268</v>
+      </c>
+      <c r="G361" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
-      <c r="B363" t="s">
-        <v>430</v>
-      </c>
-      <c r="C363" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D363" t="s">
-        <v>124</v>
-      </c>
-      <c r="E363" t="s">
-        <v>132</v>
-      </c>
-      <c r="F363" t="s">
-        <v>156</v>
-      </c>
-      <c r="G363" t="s">
-        <v>156</v>
-      </c>
-      <c r="H363" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="B364" t="s">
-        <v>245</v>
+        <v>430</v>
       </c>
       <c r="C364" t="n">
-        <v>3.1</v>
+        <v>3.938</v>
       </c>
       <c r="D364" t="s">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="E364" t="s">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="F364" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G364" t="s">
         <v>13</v>
@@ -6232,831 +6241,831 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="B367" t="s">
+        <v>434</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D367" t="s">
+        <v>124</v>
+      </c>
+      <c r="E367" t="s">
+        <v>132</v>
+      </c>
+      <c r="F367" t="s">
+        <v>156</v>
+      </c>
+      <c r="G367" t="s">
+        <v>156</v>
+      </c>
+      <c r="H367" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="B368" t="s">
         <v>245</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C368" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>155</v>
+      </c>
+      <c r="E368" t="s">
+        <v>131</v>
+      </c>
+      <c r="F368" t="s">
+        <v>156</v>
+      </c>
+      <c r="G368" t="s">
+        <v>13</v>
+      </c>
+      <c r="H368" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="B371" t="s">
+        <v>245</v>
+      </c>
+      <c r="C371" t="n">
         <v>3.375</v>
       </c>
-      <c r="D367" t="s">
-        <v>432</v>
-      </c>
-      <c r="E367" t="s">
-        <v>433</v>
-      </c>
-      <c r="F367" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367" t="s">
-        <v>13</v>
-      </c>
-      <c r="H367" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" t="s">
+      <c r="D371" t="s">
+        <v>436</v>
+      </c>
+      <c r="E371" t="s">
+        <v>437</v>
+      </c>
+      <c r="F371" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" t="s">
+        <v>13</v>
+      </c>
+      <c r="H371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="B374" t="s">
+        <v>439</v>
+      </c>
+      <c r="C374" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="D374" t="s">
+        <v>209</v>
+      </c>
+      <c r="E374" t="s">
+        <v>80</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>13</v>
+      </c>
+      <c r="H374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="B377" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>435</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.664</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="s">
+        <v>22</v>
+      </c>
+      <c r="E377" t="s">
+        <v>13</v>
+      </c>
+      <c r="F377" t="s">
+        <v>13</v>
+      </c>
+      <c r="G377" t="s">
+        <v>13</v>
+      </c>
+      <c r="H377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="B380" t="s">
+        <v>442</v>
+      </c>
+      <c r="C380" t="n">
+        <v>4</v>
+      </c>
+      <c r="D380" t="s">
+        <v>22</v>
+      </c>
+      <c r="E380" t="s">
+        <v>13</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380" t="s">
+        <v>13</v>
+      </c>
+      <c r="H380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="B383" t="s">
+        <v>422</v>
+      </c>
+      <c r="C383" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D383" t="s">
+        <v>235</v>
+      </c>
+      <c r="E383" t="s">
+        <v>236</v>
+      </c>
+      <c r="F383" t="s">
+        <v>13</v>
+      </c>
+      <c r="G383" t="s">
+        <v>13</v>
+      </c>
+      <c r="H383" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="B386" t="s">
+        <v>425</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D386" t="s">
+        <v>145</v>
+      </c>
+      <c r="E386" t="s">
+        <v>105</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>13</v>
+      </c>
+      <c r="H386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="B389" t="s">
+        <v>439</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D389" t="s">
+        <v>281</v>
+      </c>
+      <c r="E389" t="s">
+        <v>108</v>
+      </c>
+      <c r="F389" t="s">
+        <v>13</v>
+      </c>
+      <c r="G389" t="s">
+        <v>13</v>
+      </c>
+      <c r="H389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="B392" t="s">
+        <v>447</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D392" t="s">
+        <v>448</v>
+      </c>
+      <c r="E392" t="s">
+        <v>236</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>13</v>
+      </c>
+      <c r="H392" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="B395" t="s">
+        <v>434</v>
+      </c>
+      <c r="C395" t="n">
+        <v>4</v>
+      </c>
+      <c r="D395" t="s">
+        <v>22</v>
+      </c>
+      <c r="E395" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" t="s">
+        <v>13</v>
+      </c>
+      <c r="H395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="B398" t="s">
+        <v>451</v>
+      </c>
+      <c r="C398" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D398" t="s">
+        <v>100</v>
+      </c>
+      <c r="E398" t="s">
+        <v>71</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>13</v>
+      </c>
+      <c r="H398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="B401" t="s">
+        <v>451</v>
+      </c>
+      <c r="C401" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D401" t="s">
+        <v>453</v>
+      </c>
+      <c r="E401" t="s">
+        <v>454</v>
+      </c>
+      <c r="F401" t="s">
+        <v>13</v>
+      </c>
+      <c r="G401" t="s">
+        <v>13</v>
+      </c>
+      <c r="H401" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="B404" t="s">
+        <v>456</v>
+      </c>
+      <c r="C404" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D404" t="s">
+        <v>457</v>
+      </c>
+      <c r="E404" t="s">
+        <v>458</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" t="s">
+        <v>13</v>
+      </c>
+      <c r="H404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="B407" t="s">
+        <v>456</v>
+      </c>
+      <c r="C407" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D407" t="s">
+        <v>100</v>
+      </c>
+      <c r="E407" t="s">
+        <v>71</v>
+      </c>
+      <c r="F407" t="s">
+        <v>13</v>
+      </c>
+      <c r="G407" t="s">
+        <v>13</v>
+      </c>
+      <c r="H407" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="B410" t="s">
+        <v>461</v>
+      </c>
+      <c r="C410" t="n">
+        <v>3.548</v>
+      </c>
+      <c r="D410" t="s">
+        <v>462</v>
+      </c>
+      <c r="E410" t="s">
+        <v>463</v>
+      </c>
+      <c r="F410" t="s">
+        <v>13</v>
+      </c>
+      <c r="G410" t="s">
+        <v>13</v>
+      </c>
+      <c r="H410" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="B413" t="s">
+        <v>465</v>
+      </c>
+      <c r="C413" t="n">
+        <v>4</v>
+      </c>
+      <c r="D413" t="s">
+        <v>22</v>
+      </c>
+      <c r="E413" t="s">
+        <v>13</v>
+      </c>
+      <c r="F413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" t="s">
+        <v>13</v>
+      </c>
+      <c r="H413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="B416" t="s">
+        <v>467</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D416" t="s">
+        <v>100</v>
+      </c>
+      <c r="E416" t="s">
+        <v>71</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416" t="s">
+        <v>13</v>
+      </c>
+      <c r="H416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="B419" t="s">
+        <v>469</v>
+      </c>
+      <c r="C419" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D419" t="s">
         <v>209</v>
       </c>
-      <c r="E370" t="s">
-        <v>80</v>
-      </c>
-      <c r="F370" t="s">
-        <v>13</v>
-      </c>
-      <c r="G370" t="s">
-        <v>13</v>
-      </c>
-      <c r="H370" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="A372" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="B373" t="s">
-        <v>430</v>
-      </c>
-      <c r="C373" t="n">
+      <c r="E419" t="s">
+        <v>170</v>
+      </c>
+      <c r="F419" t="s">
+        <v>13</v>
+      </c>
+      <c r="G419" t="s">
+        <v>13</v>
+      </c>
+      <c r="H419" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="B422" t="s">
+        <v>469</v>
+      </c>
+      <c r="C422" t="n">
         <v>4</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D422" t="s">
         <v>22</v>
       </c>
-      <c r="E373" t="s">
-        <v>13</v>
-      </c>
-      <c r="F373" t="s">
-        <v>13</v>
-      </c>
-      <c r="G373" t="s">
-        <v>13</v>
-      </c>
-      <c r="H373" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="A375" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="B376" t="s">
-        <v>438</v>
-      </c>
-      <c r="C376" t="n">
+      <c r="E422" t="s">
+        <v>13</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" t="s">
+        <v>13</v>
+      </c>
+      <c r="H422" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="B425" t="s">
+        <v>467</v>
+      </c>
+      <c r="C425" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D425" t="s">
+        <v>472</v>
+      </c>
+      <c r="E425" t="s">
+        <v>156</v>
+      </c>
+      <c r="F425" t="s">
+        <v>13</v>
+      </c>
+      <c r="G425" t="s">
+        <v>13</v>
+      </c>
+      <c r="H425" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="B428" t="s">
+        <v>474</v>
+      </c>
+      <c r="C428" t="n">
         <v>4</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D428" t="s">
         <v>22</v>
       </c>
-      <c r="E376" t="s">
-        <v>13</v>
-      </c>
-      <c r="F376" t="s">
-        <v>13</v>
-      </c>
-      <c r="G376" t="s">
-        <v>13</v>
-      </c>
-      <c r="H376" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
-      <c r="A378" t="s">
+      <c r="E428" t="s">
+        <v>13</v>
+      </c>
+      <c r="F428" t="s">
+        <v>13</v>
+      </c>
+      <c r="G428" t="s">
+        <v>13</v>
+      </c>
+      <c r="H428" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="B431" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="B379" t="s">
-        <v>418</v>
-      </c>
-      <c r="C379" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D379" t="s">
-        <v>235</v>
-      </c>
-      <c r="E379" t="s">
-        <v>236</v>
-      </c>
-      <c r="F379" t="s">
-        <v>13</v>
-      </c>
-      <c r="G379" t="s">
-        <v>13</v>
-      </c>
-      <c r="H379" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
-      <c r="A381" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="B382" t="s">
-        <v>421</v>
-      </c>
-      <c r="C382" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D382" t="s">
-        <v>145</v>
-      </c>
-      <c r="E382" t="s">
-        <v>105</v>
-      </c>
-      <c r="F382" t="s">
-        <v>13</v>
-      </c>
-      <c r="G382" t="s">
-        <v>13</v>
-      </c>
-      <c r="H382" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="A384" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
-      <c r="B385" t="s">
-        <v>435</v>
-      </c>
-      <c r="C385" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D385" t="s">
-        <v>280</v>
-      </c>
-      <c r="E385" t="s">
-        <v>108</v>
-      </c>
-      <c r="F385" t="s">
-        <v>13</v>
-      </c>
-      <c r="G385" t="s">
-        <v>13</v>
-      </c>
-      <c r="H385" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
-      <c r="A387" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="B388" t="s">
-        <v>443</v>
-      </c>
-      <c r="C388" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="D388" t="s">
-        <v>444</v>
-      </c>
-      <c r="E388" t="s">
-        <v>236</v>
-      </c>
-      <c r="F388" t="s">
-        <v>13</v>
-      </c>
-      <c r="G388" t="s">
-        <v>13</v>
-      </c>
-      <c r="H388" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="A390" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="B391" t="s">
-        <v>430</v>
-      </c>
-      <c r="C391" t="n">
+      <c r="C431" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>124</v>
+      </c>
+      <c r="E431" t="s">
+        <v>148</v>
+      </c>
+      <c r="F431" t="s">
+        <v>13</v>
+      </c>
+      <c r="G431" t="s">
+        <v>13</v>
+      </c>
+      <c r="H431" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="B434" t="s">
+        <v>477</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D434" t="s">
+        <v>122</v>
+      </c>
+      <c r="E434" t="s">
+        <v>121</v>
+      </c>
+      <c r="F434" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434" t="s">
+        <v>13</v>
+      </c>
+      <c r="H434" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="B437" t="s">
+        <v>474</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D437" t="s">
+        <v>479</v>
+      </c>
+      <c r="E437" t="s">
+        <v>376</v>
+      </c>
+      <c r="F437" t="s">
+        <v>13</v>
+      </c>
+      <c r="G437" t="s">
+        <v>13</v>
+      </c>
+      <c r="H437" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="B440" t="s">
+        <v>461</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D440" t="s">
+        <v>481</v>
+      </c>
+      <c r="E440" t="s">
+        <v>482</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" t="s">
+        <v>13</v>
+      </c>
+      <c r="H440" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="B443" t="s">
+        <v>484</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D443" t="s">
+        <v>150</v>
+      </c>
+      <c r="E443" t="s">
+        <v>107</v>
+      </c>
+      <c r="F443" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443" t="s">
+        <v>13</v>
+      </c>
+      <c r="H443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="B446" t="s">
+        <v>486</v>
+      </c>
+      <c r="C446" t="n">
         <v>4</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D446" t="s">
         <v>22</v>
       </c>
-      <c r="E391" t="s">
-        <v>13</v>
-      </c>
-      <c r="F391" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" t="s">
-        <v>13</v>
-      </c>
-      <c r="H391" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="B394" t="s">
-        <v>447</v>
-      </c>
-      <c r="C394" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D394" t="s">
-        <v>100</v>
-      </c>
-      <c r="E394" t="s">
-        <v>71</v>
-      </c>
-      <c r="F394" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" t="s">
-        <v>13</v>
-      </c>
-      <c r="H394" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="B397" t="s">
-        <v>447</v>
-      </c>
-      <c r="C397" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D397" t="s">
-        <v>449</v>
-      </c>
-      <c r="E397" t="s">
-        <v>450</v>
-      </c>
-      <c r="F397" t="s">
-        <v>13</v>
-      </c>
-      <c r="G397" t="s">
-        <v>13</v>
-      </c>
-      <c r="H397" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
-      <c r="A399" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="B400" t="s">
-        <v>452</v>
-      </c>
-      <c r="C400" t="n">
-        <v>3.765</v>
-      </c>
-      <c r="D400" t="s">
-        <v>453</v>
-      </c>
-      <c r="E400" t="s">
-        <v>454</v>
-      </c>
-      <c r="F400" t="s">
-        <v>13</v>
-      </c>
-      <c r="G400" t="s">
-        <v>13</v>
-      </c>
-      <c r="H400" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
-      <c r="A402" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="B403" t="s">
-        <v>452</v>
-      </c>
-      <c r="C403" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D403" t="s">
-        <v>100</v>
-      </c>
-      <c r="E403" t="s">
-        <v>71</v>
-      </c>
-      <c r="F403" t="s">
-        <v>13</v>
-      </c>
-      <c r="G403" t="s">
-        <v>13</v>
-      </c>
-      <c r="H403" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="A405" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="B406" t="s">
-        <v>457</v>
-      </c>
-      <c r="C406" t="n">
-        <v>3.548</v>
-      </c>
-      <c r="D406" t="s">
-        <v>458</v>
-      </c>
-      <c r="E406" t="s">
-        <v>459</v>
-      </c>
-      <c r="F406" t="s">
-        <v>13</v>
-      </c>
-      <c r="G406" t="s">
-        <v>13</v>
-      </c>
-      <c r="H406" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="A408" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
-      <c r="B409" t="s">
-        <v>461</v>
-      </c>
-      <c r="C409" t="n">
+      <c r="E446" t="s">
+        <v>13</v>
+      </c>
+      <c r="F446" t="s">
+        <v>13</v>
+      </c>
+      <c r="G446" t="s">
+        <v>13</v>
+      </c>
+      <c r="H446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="B449" t="s">
+        <v>484</v>
+      </c>
+      <c r="C449" t="n">
         <v>4</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D449" t="s">
         <v>22</v>
       </c>
-      <c r="E409" t="s">
-        <v>13</v>
-      </c>
-      <c r="F409" t="s">
-        <v>13</v>
-      </c>
-      <c r="G409" t="s">
-        <v>13</v>
-      </c>
-      <c r="H409" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
-      <c r="A411" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="B412" t="s">
-        <v>463</v>
-      </c>
-      <c r="C412" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D412" t="s">
-        <v>100</v>
-      </c>
-      <c r="E412" t="s">
-        <v>71</v>
-      </c>
-      <c r="F412" t="s">
-        <v>13</v>
-      </c>
-      <c r="G412" t="s">
-        <v>13</v>
-      </c>
-      <c r="H412" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
-      <c r="A414" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
-      <c r="B415" t="s">
-        <v>465</v>
-      </c>
-      <c r="C415" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D415" t="s">
-        <v>209</v>
-      </c>
-      <c r="E415" t="s">
-        <v>170</v>
-      </c>
-      <c r="F415" t="s">
-        <v>13</v>
-      </c>
-      <c r="G415" t="s">
-        <v>13</v>
-      </c>
-      <c r="H415" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
-      <c r="A417" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="B418" t="s">
-        <v>465</v>
-      </c>
-      <c r="C418" t="n">
-        <v>4</v>
-      </c>
-      <c r="D418" t="s">
-        <v>22</v>
-      </c>
-      <c r="E418" t="s">
-        <v>13</v>
-      </c>
-      <c r="F418" t="s">
-        <v>13</v>
-      </c>
-      <c r="G418" t="s">
-        <v>13</v>
-      </c>
-      <c r="H418" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="A420" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="B421" t="s">
-        <v>463</v>
-      </c>
-      <c r="C421" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D421" t="s">
-        <v>468</v>
-      </c>
-      <c r="E421" t="s">
-        <v>156</v>
-      </c>
-      <c r="F421" t="s">
-        <v>13</v>
-      </c>
-      <c r="G421" t="s">
-        <v>13</v>
-      </c>
-      <c r="H421" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
-      <c r="A423" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="B424" t="s">
-        <v>470</v>
-      </c>
-      <c r="C424" t="n">
-        <v>4</v>
-      </c>
-      <c r="D424" t="s">
-        <v>22</v>
-      </c>
-      <c r="E424" t="s">
-        <v>13</v>
-      </c>
-      <c r="F424" t="s">
-        <v>13</v>
-      </c>
-      <c r="G424" t="s">
-        <v>13</v>
-      </c>
-      <c r="H424" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8">
-      <c r="A426" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
-      <c r="B427" t="s">
-        <v>435</v>
-      </c>
-      <c r="C427" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D427" t="s">
-        <v>124</v>
-      </c>
-      <c r="E427" t="s">
-        <v>148</v>
-      </c>
-      <c r="F427" t="s">
-        <v>13</v>
-      </c>
-      <c r="G427" t="s">
-        <v>13</v>
-      </c>
-      <c r="H427" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
-      <c r="A429" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
-      <c r="B430" t="s">
-        <v>473</v>
-      </c>
-      <c r="C430" t="n">
-        <v>3.444</v>
-      </c>
-      <c r="D430" t="s">
-        <v>122</v>
-      </c>
-      <c r="E430" t="s">
-        <v>121</v>
-      </c>
-      <c r="F430" t="s">
-        <v>13</v>
-      </c>
-      <c r="G430" t="s">
-        <v>13</v>
-      </c>
-      <c r="H430" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="A432" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="B433" t="s">
-        <v>470</v>
-      </c>
-      <c r="C433" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D433" t="s">
-        <v>475</v>
-      </c>
-      <c r="E433" t="s">
-        <v>372</v>
-      </c>
-      <c r="F433" t="s">
-        <v>13</v>
-      </c>
-      <c r="G433" t="s">
-        <v>13</v>
-      </c>
-      <c r="H433" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="A435" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
-      <c r="B436" t="s">
-        <v>457</v>
-      </c>
-      <c r="C436" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D436" t="s">
-        <v>477</v>
-      </c>
-      <c r="E436" t="s">
-        <v>478</v>
-      </c>
-      <c r="F436" t="s">
-        <v>13</v>
-      </c>
-      <c r="G436" t="s">
-        <v>13</v>
-      </c>
-      <c r="H436" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8">
-      <c r="A438" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
-      <c r="B439" t="s">
-        <v>480</v>
-      </c>
-      <c r="C439" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D439" t="s">
-        <v>150</v>
-      </c>
-      <c r="E439" t="s">
-        <v>107</v>
-      </c>
-      <c r="F439" t="s">
-        <v>13</v>
-      </c>
-      <c r="G439" t="s">
-        <v>13</v>
-      </c>
-      <c r="H439" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
-      <c r="A441" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8">
-      <c r="B442" t="s">
-        <v>482</v>
-      </c>
-      <c r="C442" t="n">
-        <v>4</v>
-      </c>
-      <c r="D442" t="s">
-        <v>22</v>
-      </c>
-      <c r="E442" t="s">
-        <v>13</v>
-      </c>
-      <c r="F442" t="s">
-        <v>13</v>
-      </c>
-      <c r="G442" t="s">
-        <v>13</v>
-      </c>
-      <c r="H442" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
-      <c r="A444" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8">
-      <c r="B445" t="s">
-        <v>480</v>
-      </c>
-      <c r="C445" t="n">
-        <v>4</v>
-      </c>
-      <c r="D445" t="s">
-        <v>22</v>
-      </c>
-      <c r="E445" t="s">
-        <v>13</v>
-      </c>
-      <c r="F445" t="s">
-        <v>13</v>
-      </c>
-      <c r="G445" t="s">
-        <v>13</v>
-      </c>
-      <c r="H445" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
-      <c r="A447" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
-      <c r="B448" t="s">
-        <v>485</v>
-      </c>
-      <c r="C448" t="n">
-        <v>4</v>
-      </c>
-      <c r="D448" t="s">
-        <v>22</v>
-      </c>
-      <c r="E448" t="s">
-        <v>13</v>
-      </c>
-      <c r="F448" t="s">
-        <v>13</v>
-      </c>
-      <c r="G448" t="s">
-        <v>13</v>
-      </c>
-      <c r="H448" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="A450" t="s">
-        <v>486</v>
+      <c r="E449" t="s">
+        <v>13</v>
+      </c>
+      <c r="F449" t="s">
+        <v>13</v>
+      </c>
+      <c r="G449" t="s">
+        <v>13</v>
+      </c>
+      <c r="H449" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:8">
-      <c r="B451" t="s">
-        <v>487</v>
-      </c>
-      <c r="C451" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D451" t="s">
+      <c r="A451" t="s">
         <v>488</v>
-      </c>
-      <c r="E451" t="s">
-        <v>489</v>
-      </c>
-      <c r="F451" t="s">
-        <v>489</v>
-      </c>
-      <c r="G451" t="s">
-        <v>181</v>
-      </c>
-      <c r="H451" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="B452" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C452" t="n">
-        <v>3.267</v>
+        <v>4</v>
       </c>
       <c r="D452" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="E452" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F452" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="G452" t="s">
         <v>13</v>
@@ -7067,75 +7076,75 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="B455" t="s">
+        <v>491</v>
+      </c>
+      <c r="C455" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D455" t="s">
         <v>492</v>
       </c>
-      <c r="C455" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="D455" t="s">
-        <v>280</v>
-      </c>
       <c r="E455" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="F455" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G455" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="H455" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="456" spans="1:8">
       <c r="B456" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C456" t="n">
-        <v>3.5</v>
+        <v>3.267</v>
       </c>
       <c r="D456" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="E456" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="F456" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="G456" t="s">
         <v>13</v>
       </c>
       <c r="H456" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="B459" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C459" t="n">
-        <v>4</v>
+        <v>3.812</v>
       </c>
       <c r="D459" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="E459" t="s">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="F459" t="s">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="G459" t="s">
         <v>13</v>
@@ -7146,70 +7155,70 @@
     </row>
     <row r="460" spans="1:8">
       <c r="B460" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C460" t="n">
-        <v>3.571</v>
+        <v>3.5</v>
       </c>
       <c r="D460" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E460" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F460" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G460" t="s">
         <v>13</v>
       </c>
       <c r="H460" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="B461" t="s">
-        <v>497</v>
-      </c>
-      <c r="C461" t="n">
-        <v>2.8145</v>
-      </c>
-      <c r="D461" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" t="s">
         <v>498</v>
       </c>
-      <c r="E461" t="s">
+    </row>
+    <row r="463" spans="1:8">
+      <c r="B463" t="s">
         <v>499</v>
       </c>
-      <c r="F461" t="s">
-        <v>372</v>
-      </c>
-      <c r="G461" t="s">
-        <v>13</v>
-      </c>
-      <c r="H461" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8">
-      <c r="A463" t="s">
-        <v>501</v>
+      <c r="C463" t="n">
+        <v>4</v>
+      </c>
+      <c r="D463" t="s">
+        <v>22</v>
+      </c>
+      <c r="E463" t="s">
+        <v>13</v>
+      </c>
+      <c r="F463" t="s">
+        <v>13</v>
+      </c>
+      <c r="G463" t="s">
+        <v>13</v>
+      </c>
+      <c r="H463" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="B464" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C464" t="n">
-        <v>4</v>
+        <v>3.571</v>
       </c>
       <c r="D464" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F464" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G464" t="s">
         <v>13</v>
@@ -7220,620 +7229,620 @@
     </row>
     <row r="465" spans="1:8">
       <c r="B465" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="C465" t="n">
-        <v>3.412</v>
+        <v>2.8145</v>
       </c>
       <c r="D465" t="s">
+        <v>502</v>
+      </c>
+      <c r="E465" t="s">
         <v>503</v>
       </c>
-      <c r="E465" t="s">
-        <v>10</v>
-      </c>
       <c r="F465" t="s">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="G465" t="s">
         <v>13</v>
       </c>
       <c r="H465" t="s">
-        <v>13</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="B468" t="s">
+        <v>506</v>
+      </c>
+      <c r="C468" t="n">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>22</v>
+      </c>
+      <c r="E468" t="s">
+        <v>13</v>
+      </c>
+      <c r="F468" t="s">
+        <v>13</v>
+      </c>
+      <c r="G468" t="s">
+        <v>13</v>
+      </c>
+      <c r="H468" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="B469" t="s">
+        <v>442</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="D469" t="s">
+        <v>507</v>
+      </c>
+      <c r="E469" t="s">
+        <v>10</v>
+      </c>
+      <c r="F469" t="s">
+        <v>13</v>
+      </c>
+      <c r="G469" t="s">
+        <v>13</v>
+      </c>
+      <c r="H469" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="B472" t="s">
+        <v>469</v>
+      </c>
+      <c r="C472" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="D472" t="s">
+        <v>509</v>
+      </c>
+      <c r="E472" t="s">
+        <v>454</v>
+      </c>
+      <c r="F472" t="s">
+        <v>260</v>
+      </c>
+      <c r="G472" t="s">
+        <v>13</v>
+      </c>
+      <c r="H472" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="B475" t="s">
+        <v>511</v>
+      </c>
+      <c r="C475" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="D475" t="s">
+        <v>512</v>
+      </c>
+      <c r="E475" t="s">
+        <v>512</v>
+      </c>
+      <c r="F475" t="s">
+        <v>432</v>
+      </c>
+      <c r="G475" t="s">
+        <v>13</v>
+      </c>
+      <c r="H475" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="B478" t="s">
+        <v>511</v>
+      </c>
+      <c r="C478" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D478" t="s">
+        <v>67</v>
+      </c>
+      <c r="E478" t="s">
+        <v>66</v>
+      </c>
+      <c r="F478" t="s">
+        <v>13</v>
+      </c>
+      <c r="G478" t="s">
+        <v>13</v>
+      </c>
+      <c r="H478" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="B481" t="s">
+        <v>501</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="D481" t="s">
+        <v>515</v>
+      </c>
+      <c r="E481" t="s">
+        <v>516</v>
+      </c>
+      <c r="F481" t="s">
+        <v>216</v>
+      </c>
+      <c r="G481" t="s">
+        <v>13</v>
+      </c>
+      <c r="H481" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="B484" t="s">
+        <v>518</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="D484" t="s">
+        <v>519</v>
+      </c>
+      <c r="E484" t="s">
+        <v>520</v>
+      </c>
+      <c r="F484" t="s">
+        <v>521</v>
+      </c>
+      <c r="G484" t="s">
+        <v>522</v>
+      </c>
+      <c r="H484" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="B487" t="s">
+        <v>494</v>
+      </c>
+      <c r="C487" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D487" t="s">
+        <v>124</v>
+      </c>
+      <c r="E487" t="s">
+        <v>524</v>
+      </c>
+      <c r="F487" t="s">
+        <v>268</v>
+      </c>
+      <c r="G487" t="s">
+        <v>13</v>
+      </c>
+      <c r="H487" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="B490" t="s">
+        <v>467</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3</v>
+      </c>
+      <c r="D490" t="s">
+        <v>436</v>
+      </c>
+      <c r="E490" t="s">
+        <v>107</v>
+      </c>
+      <c r="F490" t="s">
+        <v>436</v>
+      </c>
+      <c r="G490" t="s">
+        <v>13</v>
+      </c>
+      <c r="H490" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="B493" t="s">
+        <v>447</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.2855</v>
+      </c>
+      <c r="D493" t="s">
+        <v>350</v>
+      </c>
+      <c r="E493" t="s">
+        <v>527</v>
+      </c>
+      <c r="F493" t="s">
+        <v>528</v>
+      </c>
+      <c r="G493" t="s">
+        <v>13</v>
+      </c>
+      <c r="H493" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="B496" t="s">
+        <v>531</v>
+      </c>
+      <c r="C496" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="D496" t="s">
+        <v>532</v>
+      </c>
+      <c r="E496" t="s">
+        <v>533</v>
+      </c>
+      <c r="F496" t="s">
+        <v>13</v>
+      </c>
+      <c r="G496" t="s">
+        <v>13</v>
+      </c>
+      <c r="H496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="B499" t="s">
+        <v>500</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D499" t="s">
+        <v>169</v>
+      </c>
+      <c r="E499" t="s">
+        <v>170</v>
+      </c>
+      <c r="F499" t="s">
+        <v>13</v>
+      </c>
+      <c r="G499" t="s">
+        <v>13</v>
+      </c>
+      <c r="H499" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="B502" t="s">
+        <v>536</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D502" t="s">
+        <v>118</v>
+      </c>
+      <c r="E502" t="s">
+        <v>85</v>
+      </c>
+      <c r="F502" t="s">
+        <v>13</v>
+      </c>
+      <c r="G502" t="s">
+        <v>13</v>
+      </c>
+      <c r="H502" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
         <v>465</v>
       </c>
-      <c r="C468" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="D468" t="s">
-        <v>505</v>
-      </c>
-      <c r="E468" t="s">
-        <v>450</v>
-      </c>
-      <c r="F468" t="s">
-        <v>260</v>
-      </c>
-      <c r="G468" t="s">
-        <v>13</v>
-      </c>
-      <c r="H468" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="A470" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="B471" t="s">
-        <v>507</v>
-      </c>
-      <c r="C471" t="n">
-        <v>3.406</v>
-      </c>
-      <c r="D471" t="s">
-        <v>508</v>
-      </c>
-      <c r="E471" t="s">
-        <v>508</v>
-      </c>
-      <c r="F471" t="s">
-        <v>428</v>
-      </c>
-      <c r="G471" t="s">
-        <v>13</v>
-      </c>
-      <c r="H471" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
-      <c r="A473" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="B474" t="s">
-        <v>507</v>
-      </c>
-      <c r="C474" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="D474" t="s">
-        <v>67</v>
-      </c>
-      <c r="E474" t="s">
-        <v>66</v>
-      </c>
-      <c r="F474" t="s">
-        <v>13</v>
-      </c>
-      <c r="G474" t="s">
-        <v>13</v>
-      </c>
-      <c r="H474" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="A476" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="B477" t="s">
-        <v>497</v>
-      </c>
-      <c r="C477" t="n">
-        <v>3.174</v>
-      </c>
-      <c r="D477" t="s">
-        <v>511</v>
-      </c>
-      <c r="E477" t="s">
-        <v>512</v>
-      </c>
-      <c r="F477" t="s">
-        <v>216</v>
-      </c>
-      <c r="G477" t="s">
-        <v>13</v>
-      </c>
-      <c r="H477" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="A479" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="B480" t="s">
-        <v>514</v>
-      </c>
-      <c r="C480" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="D480" t="s">
-        <v>515</v>
-      </c>
-      <c r="E480" t="s">
-        <v>516</v>
-      </c>
-      <c r="F480" t="s">
-        <v>517</v>
-      </c>
-      <c r="G480" t="s">
-        <v>518</v>
-      </c>
-      <c r="H480" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="A482" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
-      <c r="B483" t="s">
-        <v>490</v>
-      </c>
-      <c r="C483" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D483" t="s">
-        <v>124</v>
-      </c>
-      <c r="E483" t="s">
-        <v>520</v>
-      </c>
-      <c r="F483" t="s">
-        <v>267</v>
-      </c>
-      <c r="G483" t="s">
-        <v>13</v>
-      </c>
-      <c r="H483" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
-      <c r="A485" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
-      <c r="B486" t="s">
-        <v>463</v>
-      </c>
-      <c r="C486" t="n">
-        <v>3</v>
-      </c>
-      <c r="D486" t="s">
-        <v>432</v>
-      </c>
-      <c r="E486" t="s">
-        <v>107</v>
-      </c>
-      <c r="F486" t="s">
-        <v>432</v>
-      </c>
-      <c r="G486" t="s">
-        <v>13</v>
-      </c>
-      <c r="H486" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8">
-      <c r="A488" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="B489" t="s">
-        <v>443</v>
-      </c>
-      <c r="C489" t="n">
-        <v>3.2855</v>
-      </c>
-      <c r="D489" t="s">
-        <v>346</v>
-      </c>
-      <c r="E489" t="s">
-        <v>523</v>
-      </c>
-      <c r="F489" t="s">
-        <v>524</v>
-      </c>
-      <c r="G489" t="s">
-        <v>13</v>
-      </c>
-      <c r="H489" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
-      <c r="A491" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
-      <c r="B492" t="s">
-        <v>527</v>
-      </c>
-      <c r="C492" t="n">
-        <v>3.516</v>
-      </c>
-      <c r="D492" t="s">
-        <v>528</v>
-      </c>
-      <c r="E492" t="s">
-        <v>529</v>
-      </c>
-      <c r="F492" t="s">
-        <v>13</v>
-      </c>
-      <c r="G492" t="s">
-        <v>13</v>
-      </c>
-      <c r="H492" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="A494" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="B495" t="s">
-        <v>496</v>
-      </c>
-      <c r="C495" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D495" t="s">
-        <v>169</v>
-      </c>
-      <c r="E495" t="s">
-        <v>170</v>
-      </c>
-      <c r="F495" t="s">
-        <v>13</v>
-      </c>
-      <c r="G495" t="s">
-        <v>13</v>
-      </c>
-      <c r="H495" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="A497" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="B498" t="s">
-        <v>532</v>
-      </c>
-      <c r="C498" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D498" t="s">
-        <v>118</v>
-      </c>
-      <c r="E498" t="s">
-        <v>85</v>
-      </c>
-      <c r="F498" t="s">
-        <v>13</v>
-      </c>
-      <c r="G498" t="s">
-        <v>13</v>
-      </c>
-      <c r="H498" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="B501" t="s">
+      <c r="C505" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D505" t="s">
+        <v>538</v>
+      </c>
+      <c r="E505" t="s">
+        <v>146</v>
+      </c>
+      <c r="F505" t="s">
+        <v>13</v>
+      </c>
+      <c r="G505" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="B508" t="s">
         <v>461</v>
       </c>
-      <c r="C501" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D501" t="s">
-        <v>534</v>
-      </c>
-      <c r="E501" t="s">
-        <v>146</v>
-      </c>
-      <c r="F501" t="s">
-        <v>13</v>
-      </c>
-      <c r="G501" t="s">
-        <v>13</v>
-      </c>
-      <c r="H501" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="B504" t="s">
-        <v>457</v>
-      </c>
-      <c r="C504" t="n">
+      <c r="C508" t="n">
         <v>3.667</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D508" t="s">
         <v>209</v>
       </c>
-      <c r="E504" t="s">
+      <c r="E508" t="s">
         <v>80</v>
       </c>
-      <c r="F504" t="s">
-        <v>13</v>
-      </c>
-      <c r="G504" t="s">
-        <v>13</v>
-      </c>
-      <c r="H504" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="B507" t="s">
-        <v>537</v>
-      </c>
-      <c r="C507" t="n">
-        <v>4</v>
-      </c>
-      <c r="D507" t="s">
-        <v>22</v>
-      </c>
-      <c r="E507" t="s">
-        <v>13</v>
-      </c>
-      <c r="F507" t="s">
-        <v>13</v>
-      </c>
-      <c r="G507" t="s">
-        <v>13</v>
-      </c>
-      <c r="H507" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
-      <c r="A509" t="s">
-        <v>538</v>
+      <c r="F508" t="s">
+        <v>13</v>
+      </c>
+      <c r="G508" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="510" spans="1:8">
-      <c r="B510" t="s">
-        <v>539</v>
-      </c>
-      <c r="C510" t="n">
-        <v>3.294</v>
-      </c>
-      <c r="D510" t="s">
-        <v>252</v>
-      </c>
-      <c r="E510" t="s">
-        <v>253</v>
-      </c>
-      <c r="F510" t="s">
-        <v>13</v>
-      </c>
-      <c r="G510" t="s">
-        <v>13</v>
-      </c>
-      <c r="H510" t="s">
-        <v>13</v>
+      <c r="A510" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="511" spans="1:8">
       <c r="B511" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C511" t="n">
-        <v>3.158</v>
+        <v>4</v>
       </c>
       <c r="D511" t="s">
-        <v>541</v>
+        <v>22</v>
       </c>
       <c r="E511" t="s">
-        <v>505</v>
+        <v>13</v>
       </c>
       <c r="F511" t="s">
+        <v>13</v>
+      </c>
+      <c r="G511" t="s">
+        <v>13</v>
+      </c>
+      <c r="H511" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
         <v>542</v>
       </c>
-      <c r="G511" t="s">
-        <v>13</v>
-      </c>
-      <c r="H511" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="B512" t="s">
+    </row>
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
         <v>543</v>
       </c>
-      <c r="C512" t="n">
-        <v>3</v>
-      </c>
-      <c r="D512" t="s">
-        <v>211</v>
-      </c>
-      <c r="E512" t="s">
-        <v>118</v>
-      </c>
-      <c r="F512" t="s">
-        <v>211</v>
-      </c>
-      <c r="G512" t="s">
-        <v>13</v>
-      </c>
-      <c r="H512" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
-      <c r="A514" t="s">
-        <v>544</v>
+      <c r="C514" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D514" t="s">
+        <v>252</v>
+      </c>
+      <c r="E514" t="s">
+        <v>253</v>
+      </c>
+      <c r="F514" t="s">
+        <v>13</v>
+      </c>
+      <c r="G514" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="515" spans="1:8">
       <c r="B515" t="s">
+        <v>544</v>
+      </c>
+      <c r="C515" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="D515" t="s">
         <v>545</v>
       </c>
-      <c r="C515" t="n">
+      <c r="E515" t="s">
+        <v>509</v>
+      </c>
+      <c r="F515" t="s">
+        <v>546</v>
+      </c>
+      <c r="G515" t="s">
+        <v>13</v>
+      </c>
+      <c r="H515" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="B516" t="s">
+        <v>547</v>
+      </c>
+      <c r="C516" t="n">
+        <v>3</v>
+      </c>
+      <c r="D516" t="s">
+        <v>211</v>
+      </c>
+      <c r="E516" t="s">
+        <v>118</v>
+      </c>
+      <c r="F516" t="s">
+        <v>211</v>
+      </c>
+      <c r="G516" t="s">
+        <v>13</v>
+      </c>
+      <c r="H516" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="B519" t="s">
+        <v>549</v>
+      </c>
+      <c r="C519" t="n">
         <v>2.6335</v>
       </c>
-      <c r="D515" t="s">
-        <v>546</v>
-      </c>
-      <c r="E515" t="s">
-        <v>547</v>
-      </c>
-      <c r="F515" t="s">
+      <c r="D519" t="s">
+        <v>550</v>
+      </c>
+      <c r="E519" t="s">
+        <v>551</v>
+      </c>
+      <c r="F519" t="s">
         <v>170</v>
       </c>
-      <c r="G515" t="s">
-        <v>548</v>
-      </c>
-      <c r="H515" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="A517" t="s">
+      <c r="G519" t="s">
+        <v>552</v>
+      </c>
+      <c r="H519" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="B522" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="B518" t="s">
-        <v>545</v>
-      </c>
-      <c r="C518" t="n">
+      <c r="C522" t="n">
         <v>3.042</v>
       </c>
-      <c r="D518" t="s">
-        <v>550</v>
-      </c>
-      <c r="E518" t="s">
-        <v>551</v>
-      </c>
-      <c r="F518" t="s">
+      <c r="D522" t="s">
+        <v>554</v>
+      </c>
+      <c r="E522" t="s">
+        <v>555</v>
+      </c>
+      <c r="F522" t="s">
         <v>108</v>
       </c>
-      <c r="G518" t="s">
-        <v>13</v>
-      </c>
-      <c r="H518" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
-      <c r="A520" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="B521" t="s">
-        <v>545</v>
-      </c>
-      <c r="C521" t="n">
-        <v>3.238</v>
-      </c>
-      <c r="D521" t="s">
-        <v>196</v>
-      </c>
-      <c r="E521" t="s">
-        <v>547</v>
-      </c>
-      <c r="F521" t="s">
-        <v>146</v>
-      </c>
-      <c r="G521" t="s">
-        <v>13</v>
-      </c>
-      <c r="H521" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="A523" t="s">
-        <v>554</v>
+      <c r="G522" t="s">
+        <v>13</v>
+      </c>
+      <c r="H522" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="524" spans="1:8">
-      <c r="B524" t="s">
-        <v>555</v>
-      </c>
-      <c r="C524" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D524" t="s">
-        <v>131</v>
-      </c>
-      <c r="E524" t="s">
-        <v>107</v>
-      </c>
-      <c r="F524" t="s">
-        <v>267</v>
-      </c>
-      <c r="G524" t="s">
-        <v>13</v>
-      </c>
-      <c r="H524" t="s">
-        <v>13</v>
+      <c r="A524" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="525" spans="1:8">
       <c r="B525" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C525" t="n">
-        <v>3.533</v>
+        <v>3.238</v>
       </c>
       <c r="D525" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="E525" t="s">
-        <v>33</v>
+        <v>551</v>
       </c>
       <c r="F525" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="G525" t="s">
         <v>13</v>
@@ -7842,32 +7851,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
-      <c r="B526" t="s">
-        <v>220</v>
-      </c>
-      <c r="C526" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D526" t="s">
+    <row r="527" spans="1:8">
+      <c r="A527" t="s">
         <v>557</v>
       </c>
-      <c r="E526" t="s">
-        <v>267</v>
-      </c>
-      <c r="F526" t="s">
-        <v>13</v>
-      </c>
-      <c r="G526" t="s">
-        <v>13</v>
-      </c>
-      <c r="H526" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="528" spans="1:8">
-      <c r="A528" t="s">
+      <c r="B528" t="s">
         <v>558</v>
+      </c>
+      <c r="C528" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="D528" t="s">
+        <v>131</v>
+      </c>
+      <c r="E528" t="s">
+        <v>107</v>
+      </c>
+      <c r="F528" t="s">
+        <v>268</v>
+      </c>
+      <c r="G528" t="s">
+        <v>13</v>
+      </c>
+      <c r="H528" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -7875,39 +7884,39 @@
         <v>559</v>
       </c>
       <c r="C529" t="n">
-        <v>2.9</v>
+        <v>3.533</v>
       </c>
       <c r="D529" t="s">
-        <v>560</v>
+        <v>84</v>
       </c>
       <c r="E529" t="s">
-        <v>561</v>
+        <v>33</v>
       </c>
       <c r="F529" t="s">
-        <v>562</v>
+        <v>13</v>
       </c>
       <c r="G529" t="s">
         <v>13</v>
       </c>
       <c r="H529" t="s">
-        <v>267</v>
+        <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:8">
       <c r="B530" t="s">
-        <v>563</v>
+        <v>220</v>
       </c>
       <c r="C530" t="n">
-        <v>2.829</v>
+        <v>3.95</v>
       </c>
       <c r="D530" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E530" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="F530" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G530" t="s">
         <v>13</v>
@@ -7918,472 +7927,523 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="533" spans="1:8">
       <c r="B533" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C533" t="n">
-        <v>3.5335</v>
+        <v>2.9</v>
       </c>
       <c r="D533" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E533" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F533" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="G533" t="s">
         <v>13</v>
       </c>
       <c r="H533" t="s">
-        <v>517</v>
+        <v>268</v>
       </c>
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C534" t="n">
-        <v>3.25</v>
+        <v>2.829</v>
       </c>
       <c r="D534" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="E534" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="F534" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="G534" t="s">
         <v>13</v>
       </c>
       <c r="H534" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="537" spans="1:8">
       <c r="B537" t="s">
+        <v>569</v>
+      </c>
+      <c r="C537" t="n">
+        <v>3.5335</v>
+      </c>
+      <c r="D537" t="s">
+        <v>570</v>
+      </c>
+      <c r="E537" t="s">
         <v>571</v>
       </c>
-      <c r="C537" t="n">
+      <c r="F537" t="s">
+        <v>521</v>
+      </c>
+      <c r="G537" t="s">
+        <v>13</v>
+      </c>
+      <c r="H537" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="B538" t="s">
+        <v>572</v>
+      </c>
+      <c r="C538" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D538" t="s">
+        <v>555</v>
+      </c>
+      <c r="E538" t="s">
+        <v>107</v>
+      </c>
+      <c r="F538" t="s">
+        <v>135</v>
+      </c>
+      <c r="G538" t="s">
+        <v>13</v>
+      </c>
+      <c r="H538" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="B541" t="s">
+        <v>574</v>
+      </c>
+      <c r="C541" t="n">
         <v>3.143</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D541" t="s">
         <v>146</v>
       </c>
-      <c r="E537" t="s">
-        <v>534</v>
-      </c>
-      <c r="F537" t="s">
-        <v>13</v>
-      </c>
-      <c r="G537" t="s">
-        <v>13</v>
-      </c>
-      <c r="H537" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="A539" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="B540" t="s">
-        <v>573</v>
-      </c>
-      <c r="C540" t="n">
+      <c r="E541" t="s">
+        <v>538</v>
+      </c>
+      <c r="F541" t="s">
+        <v>13</v>
+      </c>
+      <c r="G541" t="s">
+        <v>13</v>
+      </c>
+      <c r="H541" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="B544" t="s">
+        <v>576</v>
+      </c>
+      <c r="C544" t="n">
         <v>2.875</v>
       </c>
-      <c r="D540" t="s">
+      <c r="D544" t="s">
+        <v>577</v>
+      </c>
+      <c r="E544" t="s">
+        <v>555</v>
+      </c>
+      <c r="F544" t="s">
+        <v>577</v>
+      </c>
+      <c r="G544" t="s">
+        <v>13</v>
+      </c>
+      <c r="H544" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="B547" t="s">
+        <v>217</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D547" t="s">
+        <v>579</v>
+      </c>
+      <c r="E547" t="s">
+        <v>252</v>
+      </c>
+      <c r="F547" t="s">
+        <v>12</v>
+      </c>
+      <c r="G547" t="s">
+        <v>13</v>
+      </c>
+      <c r="H547" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>581</v>
+      </c>
+      <c r="C550" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="D550" t="s">
+        <v>436</v>
+      </c>
+      <c r="E550" t="s">
+        <v>16</v>
+      </c>
+      <c r="F550" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" t="s">
+        <v>13</v>
+      </c>
+      <c r="H550" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="B553" t="s">
         <v>574</v>
       </c>
-      <c r="E540" t="s">
-        <v>551</v>
-      </c>
-      <c r="F540" t="s">
+      <c r="C553" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D553" t="s">
+        <v>121</v>
+      </c>
+      <c r="E553" t="s">
+        <v>170</v>
+      </c>
+      <c r="F553" t="s">
+        <v>170</v>
+      </c>
+      <c r="G553" t="s">
+        <v>13</v>
+      </c>
+      <c r="H553" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="B556" t="s">
+        <v>566</v>
+      </c>
+      <c r="C556" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D556" t="s">
+        <v>347</v>
+      </c>
+      <c r="E556" t="s">
+        <v>13</v>
+      </c>
+      <c r="F556" t="s">
+        <v>348</v>
+      </c>
+      <c r="G556" t="s">
+        <v>13</v>
+      </c>
+      <c r="H556" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="B559" t="s">
+        <v>184</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="D559" t="s">
+        <v>124</v>
+      </c>
+      <c r="E559" t="s">
+        <v>124</v>
+      </c>
+      <c r="F559" t="s">
+        <v>297</v>
+      </c>
+      <c r="G559" t="s">
+        <v>125</v>
+      </c>
+      <c r="H559" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="B562" t="s">
+        <v>544</v>
+      </c>
+      <c r="C562" t="n">
+        <v>4</v>
+      </c>
+      <c r="D562" t="s">
+        <v>22</v>
+      </c>
+      <c r="E562" t="s">
+        <v>13</v>
+      </c>
+      <c r="F562" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" t="s">
+        <v>13</v>
+      </c>
+      <c r="H562" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="B565" t="s">
         <v>574</v>
       </c>
-      <c r="G540" t="s">
-        <v>13</v>
-      </c>
-      <c r="H540" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="A542" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="B543" t="s">
-        <v>217</v>
-      </c>
-      <c r="C543" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D543" t="s">
-        <v>576</v>
-      </c>
-      <c r="E543" t="s">
-        <v>252</v>
-      </c>
-      <c r="F543" t="s">
-        <v>12</v>
-      </c>
-      <c r="G543" t="s">
-        <v>13</v>
-      </c>
-      <c r="H543" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="B546" t="s">
-        <v>578</v>
-      </c>
-      <c r="C546" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="D546" t="s">
-        <v>432</v>
-      </c>
-      <c r="E546" t="s">
-        <v>16</v>
-      </c>
-      <c r="F546" t="s">
-        <v>16</v>
-      </c>
-      <c r="G546" t="s">
-        <v>13</v>
-      </c>
-      <c r="H546" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="A548" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="B549" t="s">
-        <v>571</v>
-      </c>
-      <c r="C549" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D549" t="s">
-        <v>121</v>
-      </c>
-      <c r="E549" t="s">
+      <c r="C565" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D565" t="s">
+        <v>587</v>
+      </c>
+      <c r="E565" t="s">
+        <v>67</v>
+      </c>
+      <c r="F565" t="s">
+        <v>348</v>
+      </c>
+      <c r="G565" t="s">
+        <v>348</v>
+      </c>
+      <c r="H565" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="B568" t="s">
+        <v>581</v>
+      </c>
+      <c r="C568" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D568" t="s">
+        <v>19</v>
+      </c>
+      <c r="E568" t="s">
+        <v>18</v>
+      </c>
+      <c r="F568" t="s">
+        <v>20</v>
+      </c>
+      <c r="G568" t="s">
+        <v>13</v>
+      </c>
+      <c r="H568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="B571" t="s">
+        <v>110</v>
+      </c>
+      <c r="C571" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D571" t="s">
+        <v>118</v>
+      </c>
+      <c r="E571" t="s">
+        <v>85</v>
+      </c>
+      <c r="F571" t="s">
+        <v>13</v>
+      </c>
+      <c r="G571" t="s">
+        <v>13</v>
+      </c>
+      <c r="H571" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="B574" t="s">
+        <v>591</v>
+      </c>
+      <c r="C574" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D574" t="s">
+        <v>209</v>
+      </c>
+      <c r="E574" t="s">
         <v>170</v>
       </c>
-      <c r="F549" t="s">
-        <v>170</v>
-      </c>
-      <c r="G549" t="s">
-        <v>13</v>
-      </c>
-      <c r="H549" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="B552" t="s">
-        <v>563</v>
-      </c>
-      <c r="C552" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D552" t="s">
-        <v>343</v>
-      </c>
-      <c r="E552" t="s">
-        <v>13</v>
-      </c>
-      <c r="F552" t="s">
-        <v>344</v>
-      </c>
-      <c r="G552" t="s">
-        <v>13</v>
-      </c>
-      <c r="H552" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="B555" t="s">
-        <v>184</v>
-      </c>
-      <c r="C555" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="D555" t="s">
-        <v>124</v>
-      </c>
-      <c r="E555" t="s">
-        <v>124</v>
-      </c>
-      <c r="F555" t="s">
-        <v>296</v>
-      </c>
-      <c r="G555" t="s">
-        <v>125</v>
-      </c>
-      <c r="H555" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="A557" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="B558" t="s">
-        <v>540</v>
-      </c>
-      <c r="C558" t="n">
-        <v>4</v>
-      </c>
-      <c r="D558" t="s">
-        <v>22</v>
-      </c>
-      <c r="E558" t="s">
-        <v>13</v>
-      </c>
-      <c r="F558" t="s">
-        <v>13</v>
-      </c>
-      <c r="G558" t="s">
-        <v>13</v>
-      </c>
-      <c r="H558" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="A560" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="B561" t="s">
-        <v>571</v>
-      </c>
-      <c r="C561" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="D561" t="s">
-        <v>584</v>
-      </c>
-      <c r="E561" t="s">
-        <v>67</v>
-      </c>
-      <c r="F561" t="s">
-        <v>344</v>
-      </c>
-      <c r="G561" t="s">
-        <v>344</v>
-      </c>
-      <c r="H561" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8">
-      <c r="A563" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
-      <c r="B564" t="s">
-        <v>578</v>
-      </c>
-      <c r="C564" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D564" t="s">
-        <v>19</v>
-      </c>
-      <c r="E564" t="s">
-        <v>18</v>
-      </c>
-      <c r="F564" t="s">
-        <v>20</v>
-      </c>
-      <c r="G564" t="s">
-        <v>13</v>
-      </c>
-      <c r="H564" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
-      <c r="A566" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
-      <c r="B567" t="s">
-        <v>110</v>
-      </c>
-      <c r="C567" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D567" t="s">
-        <v>118</v>
-      </c>
-      <c r="E567" t="s">
-        <v>85</v>
-      </c>
-      <c r="F567" t="s">
-        <v>13</v>
-      </c>
-      <c r="G567" t="s">
-        <v>13</v>
-      </c>
-      <c r="H567" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
-      <c r="A569" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8">
-      <c r="B570" t="s">
-        <v>588</v>
-      </c>
-      <c r="C570" t="n">
+      <c r="F574" t="s">
+        <v>211</v>
+      </c>
+      <c r="G574" t="s">
+        <v>211</v>
+      </c>
+      <c r="H574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="B577" t="s">
+        <v>593</v>
+      </c>
+      <c r="C577" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D577" t="s">
+        <v>209</v>
+      </c>
+      <c r="E577" t="s">
+        <v>80</v>
+      </c>
+      <c r="F577" t="s">
+        <v>13</v>
+      </c>
+      <c r="G577" t="s">
+        <v>13</v>
+      </c>
+      <c r="H577" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="B580" t="s">
+        <v>591</v>
+      </c>
+      <c r="C580" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D580" t="s">
+        <v>150</v>
+      </c>
+      <c r="E580" t="s">
+        <v>108</v>
+      </c>
+      <c r="F580" t="s">
+        <v>108</v>
+      </c>
+      <c r="G580" t="s">
+        <v>13</v>
+      </c>
+      <c r="H580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="B583" t="s">
+        <v>558</v>
+      </c>
+      <c r="C583" t="n">
         <v>3.5</v>
       </c>
-      <c r="D570" t="s">
+      <c r="D583" t="s">
         <v>209</v>
       </c>
-      <c r="E570" t="s">
-        <v>170</v>
-      </c>
-      <c r="F570" t="s">
-        <v>211</v>
-      </c>
-      <c r="G570" t="s">
-        <v>211</v>
-      </c>
-      <c r="H570" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8">
-      <c r="A572" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8">
-      <c r="B573" t="s">
-        <v>590</v>
-      </c>
-      <c r="C573" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D573" t="s">
-        <v>209</v>
-      </c>
-      <c r="E573" t="s">
-        <v>80</v>
-      </c>
-      <c r="F573" t="s">
-        <v>13</v>
-      </c>
-      <c r="G573" t="s">
-        <v>13</v>
-      </c>
-      <c r="H573" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8">
-      <c r="A575" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8">
-      <c r="B576" t="s">
-        <v>588</v>
-      </c>
-      <c r="C576" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D576" t="s">
-        <v>150</v>
-      </c>
-      <c r="E576" t="s">
-        <v>108</v>
-      </c>
-      <c r="F576" t="s">
-        <v>108</v>
-      </c>
-      <c r="G576" t="s">
-        <v>13</v>
-      </c>
-      <c r="H576" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
-      <c r="A578" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8">
-      <c r="B579" t="s">
-        <v>555</v>
-      </c>
-      <c r="C579" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D579" t="s">
-        <v>209</v>
-      </c>
-      <c r="E579" t="s">
+      <c r="E583" t="s">
         <v>135</v>
       </c>
-      <c r="F579" t="s">
+      <c r="F583" t="s">
         <v>135</v>
       </c>
-      <c r="G579" t="s">
-        <v>13</v>
-      </c>
-      <c r="H579" t="s">
+      <c r="G583" t="s">
+        <v>13</v>
+      </c>
+      <c r="H583" t="s">
         <v>13</v>
       </c>
     </row>
